--- a/BookLendingHistory.xlsx
+++ b/BookLendingHistory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Google ドライブ\2.ビジネス\11.ブログ\1.プログラミング\Node.js\excel_json\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31D6A9ED-4773-408A-9FC2-C24180FF0A02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62153835-EC61-4F19-8096-6B2738DFD786}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16020" windowHeight="9765" xr2:uid="{EA0881EE-4F1A-4F42-9A39-D3017A88A1A2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8520" windowHeight="6450" xr2:uid="{EA0881EE-4F1A-4F42-9A39-D3017A88A1A2}"/>
   </bookViews>
   <sheets>
     <sheet name="history" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>ユーザ名</t>
     <rPh sb="3" eb="4">
@@ -113,6 +113,13 @@
     </rPh>
     <rPh sb="2" eb="3">
       <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>履歴ID</t>
+    <rPh sb="0" eb="2">
+      <t>リレキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -479,115 +486,140 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{070DC340-7264-43E2-8DBB-0C8568AC88D2}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
         <v>44100</v>
       </c>
-      <c r="D2" s="1">
-        <f>C2+10</f>
+      <c r="E2" s="1">
+        <f>D2+10</f>
         <v>44110</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
         <v>4</v>
       </c>
-      <c r="C3" s="1">
+      <c r="D3" s="1">
         <v>44100</v>
       </c>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
         <v>5</v>
       </c>
-      <c r="C4" s="1">
+      <c r="D4" s="1">
         <v>44100</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
         <v>2</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>3</v>
       </c>
-      <c r="C5" s="1">
+      <c r="D5" s="1">
         <v>44100</v>
       </c>
-      <c r="D5" s="1">
-        <f>C5+10</f>
+      <c r="E5" s="1">
+        <f>D5+10</f>
         <v>44110</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
         <v>2</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>10</v>
       </c>
-      <c r="C6" s="1">
+      <c r="D6" s="1">
         <v>44100</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
         <v>3</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>6</v>
       </c>
-      <c r="C7" s="1">
+      <c r="D7" s="1">
         <v>44100</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
         <v>3</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>7</v>
       </c>
-      <c r="C8" s="1">
+      <c r="D8" s="1">
         <v>44100</v>
       </c>
     </row>
@@ -602,7 +634,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -650,7 +682,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
